--- a/experiment result cnn/256_0.6_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/256_0.6_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01324657221354543</v>
+        <v>0.0001801299998358576</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01065190033722259</v>
+        <v>0.0006409639953390339</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007370934239976312</v>
+        <v>0.001326035635701556</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001469513592473867</v>
+        <v>0.001915234100531278</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03006771580858399</v>
+        <v>0.001570962782652836</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01259312079217522</v>
+        <v>0.0003201839997356866</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01059760604087392</v>
+        <v>0.0007624599395526742</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003979243577613365</v>
+        <v>0.004251689403442989</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008615063204788146</v>
+        <v>0.0007615639785650684</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003015063981421235</v>
+        <v>0.01991779631374503</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.006350839899416529</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.004558087531381628</v>
+        <v>0.0003203959984589713</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.006765201427345599</v>
+        <v>0.001868757357414276</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.005070950554616366</v>
+        <v>0.0002401119999372093</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0002000919837049853</v>
+        <v>0.00688313709289244</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.001342622729379067</v>
+        <v>0.0369814037467223</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0003401379764889856</v>
+        <v>0.0004204059991501174</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.032927480058324</v>
+        <v>0.001425617725622146</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01080009124536687</v>
+        <v>0.02705271353326341</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.006856322294450813</v>
+        <v>0.004788764843678612</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008798769575618167</v>
+        <v>0.0005411619866644259</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.009935788177279605</v>
+        <v>0.0007007019980287542</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.001044239035320583</v>
+        <v>0.002791361308777079</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0005006336340703203</v>
+        <v>0.00303566448845727</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02348452547825045</v>
+        <v>0.00136390392145417</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05458584053455122</v>
+        <v>0.002273463122962917</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.008823357230687135</v>
+        <v>0.00508968506175846</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.006155803907891233</v>
+        <v>0.002972591457088167</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01289909743664762</v>
+        <v>0.00491012540187149</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.007601387693491578</v>
+        <v>0.006545414286230418</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.004811185114429401</v>
+        <v>0.02549880416919618</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02230115052192333</v>
+        <v>0.0002802959991679267</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.005678279349168374</v>
+        <v>0.01399236624810768</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.00944233033152252</v>
+        <v>0.002089655534249106</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.03257162826628095</v>
+        <v>0.001467008853903486</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.04126691645331378</v>
+        <v>0.0001600799999474575</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.001407465682142279</v>
+        <v>0.0007019419628261349</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.007962070131105876</v>
+        <v>0.0005606719965925575</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.001611158435278598</v>
+        <v>0.002008427495382214</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.004706232945835158</v>
+        <v>0.003587885751832979</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0007220652537715217</v>
+        <v>0.02368465199201102</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03174164184551267</v>
+        <v>0.00536123624083092</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.004260771865181656</v>
+        <v>0.001041939982276517</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.002014333080448781</v>
+        <v>0.0001600759999480178</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.004566248686990624</v>
+        <v>0.00263957661153777</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01092069845743143</v>
+        <v>0.0008611979917571213</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02438907934866577</v>
+        <v>0.002980356999173622</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.003287243090555944</v>
+        <v>0.004976011610888178</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0005806095623093119</v>
+        <v>0.0007624599395526742</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.002937328964862865</v>
+        <v>0.0001400579999743347</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01191192378820052</v>
+        <v>0.03756091029693648</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.006826959735845764</v>
+        <v>0.05147007038721106</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.09481891145732865</v>
+        <v>0.001571252396264331</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02626092942325138</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02132978408842213</v>
+        <v>0.01979578862521415</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02776218295762424</v>
+        <v>0.06838010317953583</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.002070350494663648</v>
+        <v>0.02252859019879967</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.03413611981312682</v>
+        <v>0.03509933029839021</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00192566954027503</v>
+        <v>0.005064433943567385</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01165253703379094</v>
+        <v>0.01685763933387532</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.004003189591295836</v>
+        <v>0.0003201399999275214</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001609599343783391</v>
+        <v>0.04935181776368354</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.03946549941280005</v>
+        <v>0.006023155067792755</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02174356466884085</v>
+        <v>0.01172331142338254</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06078522562890698</v>
+        <v>0.0759169250598504</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.03511776563430626</v>
+        <v>0.1166938834869293</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0004803797768885488</v>
+        <v>0.01865150522352252</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.005747208203167911</v>
+        <v>0.05235564102252029</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02202317637821085</v>
+        <v>0.02878464379470772</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03049236012537081</v>
+        <v>0.03789135401543027</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02862290162440025</v>
+        <v>0.01466903441564838</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.03443144316041699</v>
+        <v>0.03983327347913673</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.09497536841404322</v>
+        <v>0.07122056390173909</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0856996442126339</v>
+        <v>0.04813303502639378</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.03707795688907643</v>
+        <v>0.04497151512380777</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.00441241703437503</v>
+        <v>0.01015561227362533</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.00142699490663188</v>
+        <v>0.01260533867113888</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0005009770122535523</v>
+        <v>0.09849542819553407</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.07955231355034945</v>
+        <v>0.1621638797411353</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05661514689683395</v>
+        <v>0.01257731745205688</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1525383705056758</v>
+        <v>0.04811860478089773</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0001600559737115134</v>
+        <v>0.003886396192065599</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003118995206597092</v>
+        <v>0.02096759929478843</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.04465474266443981</v>
+        <v>0.008570122117412348</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003122431091617941</v>
+        <v>0.0122823854708354</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.01768705368170786</v>
+        <v>0.0198856398947215</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.009371436449402156</v>
+        <v>0.01329086705721612</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.006713813305638623</v>
+        <v>0.01150886932917959</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.006369134420561279</v>
+        <v>0.03927284168133372</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05167818122560845</v>
+        <v>0.02112701854412185</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.01204281856914402</v>
+        <v>0.07739733020203729</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.02043752351532416</v>
+        <v>0.01557231485950231</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0129093272153276</v>
+        <v>0.0106770671735369</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1027367930468368</v>
+        <v>0.02063461109365896</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0007210428788670922</v>
+        <v>0.003370577608939084</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01681121617594245</v>
+        <v>0.09156015255443559</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.006785954410855022</v>
+        <v>0.01627676249595771</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.001643117238568418</v>
+        <v>0.06840647019311649</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.00752957158067343</v>
+        <v>0.08564048358424423</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01223116302479607</v>
+        <v>0.1933770518910383</v>
       </c>
     </row>
   </sheetData>
